--- a/Source/Tests/resources/instruments.xlsx
+++ b/Source/Tests/resources/instruments.xlsx
@@ -5,17 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\HAL\HAL-Devices\Tests\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git\HAL\Source\Tests\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{973BEC62-C565-4F5F-B6AA-4DDAA4D0DE30}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A77761F-5F31-4E35-BB1A-7D27E1EEFDA7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12030" xr2:uid="{14239EE9-6B9F-42E8-A82B-812BD1501FE5}"/>
   </bookViews>
   <sheets>
     <sheet name="Instruments" sheetId="2" r:id="rId1"/>
-    <sheet name="gRPC XNET Read Raw CAN Frame" sheetId="1" r:id="rId2"/>
-    <sheet name="PCAN Read-Write Raw CAN Frame" sheetId="3" r:id="rId3"/>
+    <sheet name="CAN1" sheetId="4" r:id="rId2"/>
+    <sheet name="PCAN_USBBUS1  0x51" sheetId="5" r:id="rId3"/>
+    <sheet name="gRPC XNET Read Raw CAN Frame" sheetId="1" r:id="rId4"/>
+    <sheet name="PCAN Read-Write Raw CAN Frame" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="19">
   <si>
     <t>InstrumentIdenfifier</t>
   </si>
@@ -41,9 +43,6 @@
     <t>gRPC XNET Read Raw CAN Frame</t>
   </si>
   <si>
-    <t>AttributesSheet</t>
-  </si>
-  <si>
     <t>CAN1</t>
   </si>
   <si>
@@ -81,6 +80,12 @@
   </si>
   <si>
     <t>D:\\git\\HAL\\HAL-Devices\\Tests\\resources\\Triple-Sensor-NEO480.dbc</t>
+  </si>
+  <si>
+    <t>Attributes</t>
+  </si>
+  <si>
+    <t>D:\git\HAL\HAL-Devices\Tests\resources\Triple-Sensor-NEO480.dbc</t>
   </si>
 </sst>
 </file>
@@ -120,7 +125,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -136,7 +141,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -432,13 +437,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1D01127-9042-43DB-88ED-2CED71DAE784}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.28515625" customWidth="1"/>
     <col min="2" max="2" width="26.28515625" customWidth="1"/>
@@ -446,6 +451,35 @@
     <col min="4" max="4" width="34.140625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7328F58-C35F-4796-8D47-99EF4FF1A847}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.140625" customWidth="1"/>
+    <col min="2" max="2" width="34.85546875" customWidth="1"/>
+    <col min="3" max="3" width="52.42578125" customWidth="1"/>
+    <col min="4" max="4" width="41.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
@@ -457,51 +491,100 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
       </c>
       <c r="D2" t="s">
         <v>3</v>
       </c>
     </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1DDC4F8-69DC-40CF-95A0-2254C481387C}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.7109375" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" customWidth="1"/>
+    <col min="3" max="3" width="53.7109375" customWidth="1"/>
+    <col min="4" max="4" width="56.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+    </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{778D527E-38AE-468D-BD8B-06D99B73A992}">
   <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.7109375" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" customWidth="1"/>
@@ -512,19 +595,19 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>13</v>
-      </c>
-      <c r="E1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -535,13 +618,13 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -549,7 +632,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A3BDBD6-EB35-499A-BB82-68F0D9E6D3F3}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -557,17 +640,17 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
-        <v>12</v>
-      </c>
       <c r="C1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -578,7 +661,7 @@
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
